--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>表1</t>
   </si>
@@ -164,7 +164,7 @@
     <t>ログアウト画面</t>
   </si>
   <si>
-    <t>12/13(火)〜</t>
+    <t>12/13(火)〜12/15(木)</t>
   </si>
   <si>
     <t>アカウント情報確認・編集・削除機能</t>
@@ -176,7 +176,13 @@
     <t>12/16(金)〜1/6(金)　1.5週間</t>
   </si>
   <si>
+    <t>12/15(木)〜12/17(金)</t>
+  </si>
+  <si>
     <t>アカウント削除画面</t>
+  </si>
+  <si>
+    <t>12/17(金)〜</t>
   </si>
   <si>
     <t>ニックネーム変更画面</t>
@@ -750,11 +756,11 @@
     <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -2045,7 +2051,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" t="s" s="19">
@@ -2061,221 +2067,229 @@
       <c r="C12" t="s" s="24">
         <v>32</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E12" t="s" s="25">
         <v>33</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" t="s" s="19">
+        <v>34</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" ht="18.95" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="16"/>
       <c r="C13" t="s" s="24">
-        <v>34</v>
-      </c>
-      <c r="D13" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="17">
+        <v>15</v>
+      </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
+      <c r="F13" t="s" s="19">
+        <v>36</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" ht="18.95" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="16"/>
       <c r="C14" t="s" s="24">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="18.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="16"/>
       <c r="C15" t="s" s="24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="18.95" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="16"/>
       <c r="C16" t="s" s="24">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" ht="18.95" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="16"/>
       <c r="C17" t="s" s="24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="18.95" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="16"/>
       <c r="C18" t="s" s="21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" ht="18.95" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="16"/>
       <c r="C19" t="s" s="21">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" ht="20.7" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" t="s" s="20">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" t="s" s="28">
-        <v>43</v>
-      </c>
-      <c r="F20" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="F20" s="27"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" ht="18.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" t="s" s="23">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s" s="17">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" t="s" s="28">
-        <v>46</v>
-      </c>
-      <c r="F21" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="27"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" ht="18.95" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="17">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" ht="18.95" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" t="s" s="17">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="26"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" ht="18.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" ht="18.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="18.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s" s="17">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" t="s" s="23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s" s="17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" t="s" s="28">
-        <v>54</v>
-      </c>
-      <c r="F27" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="F27" s="27"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" ht="18.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="26"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" ht="18.95" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="17">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="26"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="29">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" t="s" s="31">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>表1</t>
   </si>
@@ -182,13 +182,19 @@
     <t>アカウント削除画面</t>
   </si>
   <si>
-    <t>12/17(金)〜</t>
+    <t>12/17(金)〜12/19(月)</t>
   </si>
   <si>
     <t>ニックネーム変更画面</t>
   </si>
   <si>
+    <t>12/19(月)〜12/22(木)</t>
+  </si>
+  <si>
     <t>ニックネーム変更完了画面</t>
+  </si>
+  <si>
+    <t>12/22(木)〜</t>
   </si>
   <si>
     <t>パスワード変更画面</t>
@@ -2085,7 +2091,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" t="s" s="19">
@@ -2099,27 +2105,35 @@
       <c r="C14" t="s" s="24">
         <v>37</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="F14" t="s" s="19">
+        <v>38</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="18.95" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="16"/>
       <c r="C15" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="17">
+        <v>15</v>
+      </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="27"/>
+      <c r="F15" t="s" s="19">
+        <v>40</v>
+      </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="18.95" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="16"/>
       <c r="C16" t="s" s="24">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="26"/>
@@ -2130,7 +2144,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="16"/>
       <c r="C17" t="s" s="24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2141,7 +2155,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="16"/>
       <c r="C18" t="s" s="21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="26"/>
@@ -2152,7 +2166,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="16"/>
       <c r="C19" t="s" s="21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2162,14 +2176,14 @@
     <row r="20" ht="20.7" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" t="s" s="20">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="17">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" t="s" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="11"/>
@@ -2177,14 +2191,14 @@
     <row r="21" ht="18.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" t="s" s="23">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="17">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" t="s" s="28">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="11"/>
@@ -2193,7 +2207,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="17">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2204,7 +2218,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" t="s" s="17">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2215,7 +2229,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2226,7 +2240,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2237,7 +2251,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s" s="17">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2247,14 +2261,14 @@
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" t="s" s="23">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s" s="17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" t="s" s="28">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="11"/>
@@ -2263,7 +2277,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2274,7 +2288,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="17">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2284,12 +2298,12 @@
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="29">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" t="s" s="31">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>表1</t>
   </si>
@@ -173,7 +173,7 @@
     <t>アカウント画面</t>
   </si>
   <si>
-    <t>12/16(金)〜1/6(金)　1.5週間</t>
+    <t>12/26(金)〜1/6(金)　1.5週間</t>
   </si>
   <si>
     <t>12/15(木)〜12/17(金)</t>
@@ -194,10 +194,13 @@
     <t>ニックネーム変更完了画面</t>
   </si>
   <si>
-    <t>12/22(木)〜</t>
+    <t>12/22(木)〜12/27(火)</t>
   </si>
   <si>
     <t>パスワード変更画面</t>
+  </si>
+  <si>
+    <t>12/27(火)〜</t>
   </si>
   <si>
     <t>パスワード変更完了画面</t>
@@ -2121,7 +2124,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" t="s" s="19">
@@ -2135,16 +2138,20 @@
       <c r="C16" t="s" s="24">
         <v>41</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" t="s" s="17">
+        <v>15</v>
+      </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="F16" t="s" s="19">
+        <v>42</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" ht="18.95" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="16"/>
       <c r="C17" t="s" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -2155,7 +2162,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="16"/>
       <c r="C18" t="s" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="26"/>
@@ -2166,7 +2173,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="16"/>
       <c r="C19" t="s" s="21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2176,14 +2183,14 @@
     <row r="20" ht="20.7" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" t="s" s="20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" t="s" s="28">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="11"/>
@@ -2191,14 +2198,14 @@
     <row r="21" ht="18.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" t="s" s="23">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s" s="17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" t="s" s="28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="11"/>
@@ -2207,7 +2214,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="17">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2218,7 +2225,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" t="s" s="17">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2229,7 +2236,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2240,7 +2247,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2251,7 +2258,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s" s="17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2261,14 +2268,14 @@
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" t="s" s="23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s" s="17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" t="s" s="28">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="11"/>
@@ -2277,7 +2284,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2288,7 +2295,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2298,12 +2305,12 @@
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="29">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" t="s" s="31">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>表1</t>
   </si>
@@ -200,16 +200,25 @@
     <t>パスワード変更画面</t>
   </si>
   <si>
-    <t>12/27(火)〜</t>
+    <t>12/27(火)〜12/30(金)</t>
   </si>
   <si>
     <t>パスワード変更完了画面</t>
   </si>
   <si>
+    <t>12/30(金)〜1/1(日)</t>
+  </si>
+  <si>
     <t>メアド変更画面</t>
   </si>
   <si>
+    <t>1/1(日)〜1/3(火)</t>
+  </si>
+  <si>
     <t>メアド変更完了画面</t>
+  </si>
+  <si>
+    <t>1/3(火)〜1/4(水)</t>
   </si>
   <si>
     <t>カレンダー表示機能</t>
@@ -242,6 +251,9 @@
       </rPr>
       <t>週間</t>
     </r>
+  </si>
+  <si>
+    <t>1/4(水)〜</t>
   </si>
   <si>
     <r>
@@ -768,11 +780,11 @@
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
@@ -2139,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" t="s" s="19">
@@ -2153,164 +2165,180 @@
       <c r="C17" t="s" s="24">
         <v>43</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="27"/>
+      <c r="F17" t="s" s="19">
+        <v>44</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="18.95" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="16"/>
       <c r="C18" t="s" s="21">
-        <v>44</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="D18" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
+      <c r="F18" t="s" s="19">
+        <v>46</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" ht="18.95" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="16"/>
       <c r="C19" t="s" s="21">
-        <v>45</v>
-      </c>
-      <c r="D19" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="D19" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="27"/>
+      <c r="F19" t="s" s="19">
+        <v>48</v>
+      </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" ht="20.7" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" t="s" s="20">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" t="s" s="28">
-        <v>48</v>
-      </c>
-      <c r="F20" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="D20" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s" s="19">
+        <v>52</v>
+      </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" ht="18.95" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" t="s" s="23">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s" s="17">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="F21" s="27"/>
+      <c r="E21" t="s" s="27">
+        <v>55</v>
+      </c>
+      <c r="F21" s="28"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" ht="18.95" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="17">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" ht="18.95" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" t="s" s="17">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" ht="18.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" ht="18.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="18.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s" s="17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" t="s" s="23">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s" s="17">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" t="s" s="28">
-        <v>59</v>
-      </c>
-      <c r="F27" s="27"/>
+      <c r="E27" t="s" s="27">
+        <v>63</v>
+      </c>
+      <c r="F27" s="28"/>
       <c r="G27" s="11"/>
     </row>
     <row r="28" ht="18.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="11"/>
     </row>
     <row r="29" ht="18.95" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="17">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="29">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" t="s" s="31">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -380,7 +380,7 @@
     <t>総合テスト</t>
   </si>
   <si>
-    <t>修正</t>
+    <t>リリース作業・リリーステスト</t>
   </si>
   <si>
     <t>2/22(水)〜2/28(火)　1週間</t>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>表1</t>
   </si>
@@ -253,7 +253,7 @@
     </r>
   </si>
   <si>
-    <t>1/4(水)〜</t>
+    <t>1/4(水)〜1/24(火)</t>
   </si>
   <si>
     <r>
@@ -325,6 +325,9 @@
       </rPr>
       <t>週間</t>
     </r>
+  </si>
+  <si>
+    <t>1/24(火)〜</t>
   </si>
   <si>
     <t>予定追加画面</t>
@@ -2213,7 +2216,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s" s="27">
         <v>51</v>
@@ -2231,18 +2234,22 @@
       <c r="C21" t="s" s="17">
         <v>54</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" t="s" s="17">
+        <v>15</v>
+      </c>
       <c r="E21" t="s" s="27">
         <v>55</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" t="s" s="19">
+        <v>56</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" ht="18.95" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2253,7 +2260,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" t="s" s="17">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2264,7 +2271,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2275,7 +2282,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2286,7 +2293,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2296,14 +2303,14 @@
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" t="s" s="23">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s" s="17">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" t="s" s="27">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="11"/>
@@ -2312,7 +2319,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2323,7 +2330,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="17">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2333,12 +2340,12 @@
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="29">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" t="s" s="31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>表1</t>
   </si>
@@ -327,13 +327,16 @@
     </r>
   </si>
   <si>
-    <t>1/24(火)〜</t>
+    <t>1/24(火)〜1/27(金)</t>
+  </si>
+  <si>
+    <t>予定編集画面</t>
+  </si>
+  <si>
+    <t>1/27(金)〜</t>
   </si>
   <si>
     <t>予定追加画面</t>
-  </si>
-  <si>
-    <t>予定編集画面</t>
   </si>
   <si>
     <t>予定削除画面</t>
@@ -2235,7 +2238,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s" s="27">
         <v>55</v>
@@ -2251,16 +2254,20 @@
       <c r="C22" t="s" s="17">
         <v>57</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" t="s" s="17">
+        <v>15</v>
+      </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="28"/>
+      <c r="F22" t="s" s="19">
+        <v>58</v>
+      </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" ht="18.95" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="16"/>
       <c r="C23" t="s" s="17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2271,7 +2278,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2282,7 +2289,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2293,7 +2300,7 @@
       <c r="A26" s="6"/>
       <c r="B26" s="16"/>
       <c r="C26" t="s" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2303,14 +2310,14 @@
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" t="s" s="23">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="17">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" t="s" s="27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="11"/>
@@ -2319,7 +2326,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2330,7 +2337,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2340,12 +2347,12 @@
     <row r="30" ht="19.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="29">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" t="s" s="31">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -342,7 +342,7 @@
     <t>予定削除画面</t>
   </si>
   <si>
-    <t>予定削除確認画面</t>
+    <t>1/30(月)〜1/31(火)</t>
   </si>
   <si>
     <t>予定削除完了画面</t>
@@ -1897,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A2:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2280,45 +2280,53 @@
       <c r="C24" t="s" s="17">
         <v>60</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="28"/>
+      <c r="F24" t="s" s="19">
+        <v>61</v>
+      </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" ht="18.95" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" t="s" s="19">
         <v>61</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="28"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="18.95" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
+      <c r="B26" t="s" s="23">
+        <v>63</v>
+      </c>
       <c r="C26" t="s" s="17">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="E26" t="s" s="27">
+        <v>65</v>
+      </c>
       <c r="F26" s="28"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" t="s" s="23">
-        <v>63</v>
-      </c>
+      <c r="B27" s="16"/>
       <c r="C27" t="s" s="17">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" t="s" s="27">
-        <v>65</v>
-      </c>
+      <c r="E27" s="18"/>
       <c r="F27" s="28"/>
       <c r="G27" s="11"/>
     </row>
@@ -2326,44 +2334,42 @@
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="28"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="18.95" customHeight="1">
+    <row r="29" ht="19.95" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
-      <c r="C29" t="s" s="17">
-        <v>67</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="28"/>
+      <c r="B29" t="s" s="29">
+        <v>68</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" t="s" s="31">
+        <v>69</v>
+      </c>
+      <c r="F29" s="32"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="19.95" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s" s="29">
-        <v>68</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" t="s" s="31">
-        <v>69</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="19.65" customHeight="1">
+    <row r="30" ht="19.65" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="18.3" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" ht="18.3" customHeight="1">
@@ -2527,15 +2533,6 @@
       <c r="E49" s="36"/>
       <c r="F49" s="37"/>
       <c r="G49" s="5"/>
-    </row>
-    <row r="50" ht="18.3" customHeight="1">
-      <c r="A50" s="5"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2549,13 +2546,13 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E19"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D49">
       <formula1>",○,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>表1</t>
   </si>
@@ -333,10 +333,13 @@
     <t>予定編集画面</t>
   </si>
   <si>
-    <t>1/27(金)〜</t>
+    <t>1/27(金)〜2/6(月)</t>
   </si>
   <si>
     <t>予定追加画面</t>
+  </si>
+  <si>
+    <t>2/3(金)〜</t>
   </si>
   <si>
     <t>予定削除画面</t>
@@ -2271,21 +2274,23 @@
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="28"/>
+      <c r="F23" t="s" s="19">
+        <v>60</v>
+      </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" ht="18.95" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s" s="17">
         <v>9</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" t="s" s="19">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="11"/>
     </row>
@@ -2293,28 +2298,28 @@
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="17">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s" s="17">
         <v>9</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" t="s" s="19">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="18.95" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" t="s" s="23">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s" s="17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" t="s" s="27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="11"/>
@@ -2323,7 +2328,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="16"/>
       <c r="C27" t="s" s="17">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2334,7 +2339,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2344,12 +2349,12 @@
     <row r="29" ht="19.95" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" t="s" s="29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" t="s" s="31">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="11"/>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>表1</t>
   </si>
@@ -339,7 +339,7 @@
     <t>予定追加画面</t>
   </si>
   <si>
-    <t>2/3(金)〜</t>
+    <t>2/3(金)〜2/7(火)</t>
   </si>
   <si>
     <t>予定削除画面</t>
@@ -383,16 +383,43 @@
     </r>
   </si>
   <si>
+    <t>2/7(火)〜2/12(日)</t>
+  </si>
+  <si>
     <t>結合テスト</t>
   </si>
   <si>
+    <t>2/12(日)〜2/16(木)</t>
+  </si>
+  <si>
     <t>総合テスト</t>
   </si>
   <si>
-    <t>リリース作業・リリーステスト</t>
+    <t>2/16(木)〜</t>
+  </si>
+  <si>
+    <t>修正</t>
+  </si>
+  <si>
+    <t>NG項目の修正</t>
   </si>
   <si>
     <t>2/22(水)〜2/28(火)　1週間</t>
+  </si>
+  <si>
+    <t>webアプリ公開</t>
+  </si>
+  <si>
+    <t>web上にアプリ公開</t>
+  </si>
+  <si>
+    <t>2/28(火)〜3/10(金)　1.5週間</t>
+  </si>
+  <si>
+    <t>公開後のテスト</t>
+  </si>
+  <si>
+    <t>3/10(金)〜3/17(金)　1週間</t>
   </si>
 </sst>
 </file>
@@ -707,7 +734,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -792,11 +819,17 @@
     <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1900,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G49"/>
+  <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2258,7 +2291,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s" s="17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" t="s" s="19">
@@ -2272,7 +2305,9 @@
       <c r="C23" t="s" s="17">
         <v>59</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E23" s="18"/>
       <c r="F23" t="s" s="19">
         <v>60</v>
@@ -2317,227 +2352,269 @@
       <c r="C26" t="s" s="17">
         <v>65</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E26" t="s" s="27">
         <v>66</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" t="s" s="19">
+        <v>67</v>
+      </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="18.95" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="16"/>
       <c r="C27" t="s" s="17">
-        <v>67</v>
-      </c>
-      <c r="D27" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="D27" t="s" s="17">
+        <v>9</v>
+      </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="28"/>
+      <c r="F27" t="s" s="19">
+        <v>69</v>
+      </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" ht="18.95" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="17">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="28"/>
+      <c r="F28" t="s" s="19">
+        <v>71</v>
+      </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="19.95" customHeight="1">
+    <row r="29" ht="18.95" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" t="s" s="31">
-        <v>70</v>
-      </c>
-      <c r="F29" s="32"/>
+      <c r="B29" t="s" s="23">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s" s="17">
+        <v>73</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" t="s" s="28">
+        <v>74</v>
+      </c>
+      <c r="F29" s="29"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="19.65" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="18.3" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" ht="18.3" customHeight="1">
+    <row r="30" ht="18.95" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s" s="23">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s" s="17">
+        <v>76</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" t="s" s="28">
+        <v>77</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="19.95" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s" s="30">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s" s="31">
+        <v>78</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" t="s" s="33">
+        <v>79</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="19.65" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="37"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" ht="18.3" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" ht="18.3" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" ht="18.3" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" ht="18.3" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" ht="18.3" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="36"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" ht="18.3" customHeight="1">
       <c r="A38" s="5"/>
-      <c r="B38" s="36"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" ht="18.3" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="36"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" ht="18.3" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="36"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" ht="18.3" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="36"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" ht="18.3" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="36"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" ht="18.3" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="36"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" ht="18.3" customHeight="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" ht="18.3" customHeight="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="36"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" ht="18.3" customHeight="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" ht="18.3" customHeight="1">
       <c r="A47" s="5"/>
-      <c r="B47" s="36"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
       <c r="G47" s="5"/>
     </row>
     <row r="48" ht="18.3" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="36"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="5"/>
     </row>
     <row r="49" ht="18.3" customHeight="1">
       <c r="A49" s="5"/>
-      <c r="B49" s="36"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="18.3" customHeight="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="18.3" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2557,7 +2634,7 @@
     <mergeCell ref="B26:B28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D51">
       <formula1>",○,△"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/作業計画表.xlsx
+++ b/documents/作業計画表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>表1</t>
   </si>
@@ -395,7 +395,7 @@
     <t>総合テスト</t>
   </si>
   <si>
-    <t>2/16(木)〜</t>
+    <t>2/16(木)〜2/20(月)</t>
   </si>
   <si>
     <t>修正</t>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>2/22(水)〜2/28(火)　1週間</t>
+  </si>
+  <si>
+    <t>2/20(月)〜</t>
   </si>
   <si>
     <t>webアプリ公開</t>
@@ -2403,20 +2406,22 @@
       <c r="E29" t="s" s="28">
         <v>74</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" t="s" s="19">
+        <v>75</v>
+      </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="18.95" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" t="s" s="23">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s" s="17">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" t="s" s="28">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="11"/>
@@ -2427,11 +2432,11 @@
         <v>64</v>
       </c>
       <c r="C31" t="s" s="31">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" t="s" s="33">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="11"/>
